--- a/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-base-url/StructureDefinition/HCXDiagnosticDocumentsExtension</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.html</t>
   </si>
   <si>
     <t>Version</t>
@@ -794,7 +794,7 @@
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="49.51171875" customWidth="true" bestFit="true"/>

--- a/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
+++ b/v0.7/StructureDefinition-HCXDiagnosticDocumentsExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
